--- a/data/sexoJH.xlsx
+++ b/data/sexoJH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenes\OneDrive\Escritorio\Carpetas_Escritorio\trabajo\InterfazSantiagosydehivy\DashProy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenes\OneDrive\Escritorio\Carpetas_Escritorio\FinishedProyects\DashProy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34F4E84-5B32-4408-962D-A697DA14CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E2D3BC-67DB-4924-91AD-0D72C8D789EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{9F7BE84B-BF4A-4970-9443-DCCC90E1ABD0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F7BE84B-BF4A-4970-9443-DCCC90E1ABD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -544,9 +552,11 @@
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,15 +919,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDDA00E-DE6E-4D03-9AA9-506ACDD0ACC3}">
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="G998" sqref="G998"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -945,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -959,7 +969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -973,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -987,7 +997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1001,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1028,8 +1038,9 @@
       <c r="D8" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1043,7 +1054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1057,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1071,7 +1082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1099,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1113,7 +1124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1127,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2933,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -2947,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>1</v>
       </c>
@@ -2961,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>1</v>
       </c>
@@ -2975,7 +2986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -2989,7 +3000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -3003,7 +3014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>0</v>
       </c>
@@ -3017,7 +3028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>1</v>
       </c>
@@ -3031,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -3045,7 +3056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>1</v>
       </c>
@@ -3059,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>0</v>
       </c>
@@ -3073,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>1</v>
       </c>
@@ -3086,8 +3097,9 @@
       <c r="D155" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>1</v>
       </c>
@@ -3101,7 +3113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -3115,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>1</v>
       </c>
@@ -3129,7 +3141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>1</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>1</v>
       </c>
@@ -14931,5 +14943,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>